--- a/artfynd/A 58410-2025 artfynd.xlsx
+++ b/artfynd/A 58410-2025 artfynd.xlsx
@@ -9030,7 +9030,7 @@
         <v>130828395</v>
       </c>
       <c r="B81" t="n">
-        <v>93122</v>
+        <v>93126</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/artfynd/A 58410-2025 artfynd.xlsx
+++ b/artfynd/A 58410-2025 artfynd.xlsx
@@ -9030,7 +9030,7 @@
         <v>130828395</v>
       </c>
       <c r="B81" t="n">
-        <v>93126</v>
+        <v>93127</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
